--- a/MCM/Data/C OUTPUT.xlsx
+++ b/MCM/Data/C OUTPUT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intlyc/Documents/Research Code/MCM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE4FC10-7A97-FA4C-AF59-2371F6B85C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF73808-6D58-D144-B69A-612A9DF64D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="80" windowWidth="18080" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1288,6 +1287,27 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="47" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,56 +1317,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1446,8 +1445,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1471,8 +1470,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="675" cy="1518"/>
+          <a:off x="0" y="36550600"/>
+          <a:ext cx="7242175" cy="13385800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,7 +1814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -1836,12 +1837,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1916,32 +1917,32 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" customHeight="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1952,7 +1953,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1961,7 +1962,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
-      <c r="A26" s="56"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1970,7 +1971,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1">
-      <c r="A27" s="56"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1979,7 +1980,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1988,7 +1989,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1997,7 +1998,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2008,7 +2009,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="57" customHeight="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
@@ -2016,17 +2017,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="409.6" customHeight="1">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21" customHeight="1">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2037,7 +2038,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21" customHeight="1">
-      <c r="A34" s="56"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2047,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="52" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2057,7 +2058,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21" customHeight="1">
-      <c r="A36" s="56"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
@@ -2066,7 +2067,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21" customHeight="1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="52" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2077,7 +2078,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21" customHeight="1">
-      <c r="A38" s="58"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
@@ -2086,12 +2087,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="D41" s="10" t="s">
@@ -2099,7 +2100,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="40" customHeight="1">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -2113,7 +2114,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="40" customHeight="1">
-      <c r="A43" s="56"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="13" t="s">
         <v>57</v>
       </c>
@@ -2125,7 +2126,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="40" customHeight="1">
-      <c r="A44" s="56"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="13" t="s">
         <v>59</v>
       </c>
@@ -2137,7 +2138,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" customHeight="1">
-      <c r="A45" s="56"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="13" t="s">
         <v>61</v>
       </c>
@@ -2149,7 +2150,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="40" customHeight="1">
-      <c r="A46" s="56"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="13" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2162,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="40" customHeight="1">
-      <c r="A47" s="56"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="13" t="s">
         <v>65</v>
       </c>
@@ -2173,7 +2174,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="40" customHeight="1">
-      <c r="A48" s="56"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="13" t="s">
         <v>67</v>
       </c>
@@ -2185,7 +2186,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="40" customHeight="1">
-      <c r="A49" s="56"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="13" t="s">
         <v>69</v>
       </c>
@@ -2197,7 +2198,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="40" customHeight="1">
-      <c r="A50" s="58"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="14" t="s">
         <v>71</v>
       </c>
@@ -2214,20 +2215,20 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="29" customHeight="1">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="53"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="60"/>
     </row>
     <row r="56" spans="1:12" ht="20" customHeight="1">
       <c r="A56" s="16" t="s">
@@ -2253,14 +2254,14 @@
       <c r="I56" s="63"/>
       <c r="J56" s="63"/>
       <c r="K56" s="63"/>
-      <c r="L56" s="65"/>
+      <c r="L56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="20" customHeight="1">
       <c r="A57" s="17"/>
       <c r="B57" s="62"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="19" t="s">
         <v>81</v>
       </c>
@@ -2588,15 +2589,15 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="29" customHeight="1">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="60"/>
     </row>
     <row r="68" spans="1:26" ht="36" customHeight="1">
       <c r="A68" s="16" t="s">
@@ -2613,7 +2614,7 @@
       </c>
       <c r="E68" s="63"/>
       <c r="F68" s="63"/>
-      <c r="G68" s="65" t="s">
+      <c r="G68" s="64" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2632,7 +2633,7 @@
       <c r="F69" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G69" s="66"/>
+      <c r="G69" s="65"/>
     </row>
     <row r="70" spans="1:26" ht="21" customHeight="1">
       <c r="A70" s="21" t="s">
@@ -2842,34 +2843,34 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="29" customHeight="1">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="52"/>
-      <c r="S80" s="52"/>
-      <c r="T80" s="52"/>
-      <c r="U80" s="52"/>
-      <c r="V80" s="52"/>
-      <c r="W80" s="52"/>
-      <c r="X80" s="52"/>
-      <c r="Y80" s="52"/>
-      <c r="Z80" s="53"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="59"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="59"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="59"/>
+      <c r="V80" s="59"/>
+      <c r="W80" s="59"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="59"/>
+      <c r="Z80" s="60"/>
     </row>
     <row r="81" spans="1:26" ht="20" customHeight="1">
       <c r="A81" s="42" t="s">
@@ -2950,7 +2951,7 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="21" customHeight="1">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="57" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -3030,7 +3031,7 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="21" customHeight="1">
-      <c r="A83" s="56"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>138</v>
       </c>
@@ -3108,7 +3109,7 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="21" customHeight="1">
-      <c r="A84" s="68"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="47" t="s">
         <v>139</v>
       </c>
@@ -3186,7 +3187,7 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="21" customHeight="1">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="51" t="s">
         <v>106</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3266,7 +3267,7 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="21" customHeight="1">
-      <c r="A86" s="56"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>138</v>
       </c>
@@ -3344,7 +3345,7 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="21" customHeight="1">
-      <c r="A87" s="68"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="47" t="s">
         <v>139</v>
       </c>
@@ -3422,7 +3423,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="21" customHeight="1">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="51" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -3502,7 +3503,7 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="21" customHeight="1">
-      <c r="A89" s="56"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>138</v>
       </c>
@@ -3580,7 +3581,7 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="21" customHeight="1">
-      <c r="A90" s="68"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="47" t="s">
         <v>139</v>
       </c>
@@ -3658,7 +3659,7 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="21" customHeight="1">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="51" t="s">
         <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3738,7 +3739,7 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="21" customHeight="1">
-      <c r="A92" s="56"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>138</v>
       </c>
@@ -3816,7 +3817,7 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="21" customHeight="1">
-      <c r="A93" s="68"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="47" t="s">
         <v>139</v>
       </c>
@@ -3894,7 +3895,7 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="21" customHeight="1">
-      <c r="A94" s="68" t="s">
+      <c r="A94" s="51" t="s">
         <v>109</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3974,7 +3975,7 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="21" customHeight="1">
-      <c r="A95" s="56"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>138</v>
       </c>
@@ -4052,7 +4053,7 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="21" customHeight="1">
-      <c r="A96" s="68"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="47" t="s">
         <v>139</v>
       </c>
@@ -4130,7 +4131,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="21" customHeight="1">
-      <c r="A97" s="68" t="s">
+      <c r="A97" s="51" t="s">
         <v>110</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4210,7 +4211,7 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="21" customHeight="1">
-      <c r="A98" s="56"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>138</v>
       </c>
@@ -4288,7 +4289,7 @@
       </c>
     </row>
     <row r="99" spans="1:26" ht="21" customHeight="1">
-      <c r="A99" s="68"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="47" t="s">
         <v>139</v>
       </c>
@@ -4366,7 +4367,7 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="21" customHeight="1">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="51" t="s">
         <v>111</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -4446,7 +4447,7 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="21" customHeight="1">
-      <c r="A101" s="56"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>138</v>
       </c>
@@ -4524,7 +4525,7 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="21" customHeight="1">
-      <c r="A102" s="68"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="47" t="s">
         <v>139</v>
       </c>
@@ -4602,7 +4603,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="21" customHeight="1">
-      <c r="A103" s="68" t="s">
+      <c r="A103" s="51" t="s">
         <v>112</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4682,7 +4683,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="21" customHeight="1">
-      <c r="A104" s="56"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="3" t="s">
         <v>138</v>
       </c>
@@ -4760,7 +4761,7 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="21" customHeight="1">
-      <c r="A105" s="68"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="47" t="s">
         <v>139</v>
       </c>
@@ -4838,7 +4839,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="21" customHeight="1">
-      <c r="A106" s="68" t="s">
+      <c r="A106" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4918,7 +4919,7 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="21" customHeight="1">
-      <c r="A107" s="56"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="3" t="s">
         <v>138</v>
       </c>
@@ -4996,7 +4997,7 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="21" customHeight="1">
-      <c r="A108" s="58"/>
+      <c r="A108" s="53"/>
       <c r="B108" s="4" t="s">
         <v>139</v>
       </c>
@@ -5074,53 +5075,40 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="16" customHeight="1">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="70"/>
-      <c r="S109" s="70"/>
-      <c r="T109" s="70"/>
-      <c r="U109" s="70"/>
-      <c r="V109" s="70"/>
-      <c r="W109" s="70"/>
-      <c r="X109" s="70"/>
-      <c r="Y109" s="70"/>
-      <c r="Z109" s="71"/>
-    </row>
-    <row r="111" spans="1:26" ht="409.6" customHeight="1"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="55"/>
+      <c r="M109" s="55"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="55"/>
+      <c r="P109" s="55"/>
+      <c r="Q109" s="55"/>
+      <c r="R109" s="55"/>
+      <c r="S109" s="55"/>
+      <c r="T109" s="55"/>
+      <c r="U109" s="55"/>
+      <c r="V109" s="55"/>
+      <c r="W109" s="55"/>
+      <c r="X109" s="55"/>
+      <c r="Y109" s="55"/>
+      <c r="Z109" s="56"/>
+    </row>
+    <row r="111" spans="1:26" ht="409.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:Z109"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A80:Z80"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A42:A50"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A2:A3"/>
@@ -5137,8 +5125,21 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A80:Z80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:Z109"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
